--- a/data/trans_bre/P62-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P62-Clase-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-27.68338548286784</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-20.63594684028192</v>
+        <v>-20.63594684028193</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.392473581399039</v>
@@ -649,7 +649,7 @@
         <v>-0.4213639635488944</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.296118864124622</v>
+        <v>-0.2961188641246222</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-42.35023485156988</v>
+        <v>-42.76617953105519</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-34.38109921476831</v>
+        <v>-33.71078830014431</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-39.6616069588616</v>
+        <v>-39.80267142051581</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-30.56830313602334</v>
+        <v>-29.70494920583273</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.5300390384200883</v>
+        <v>-0.5334322593840625</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.5858833892099109</v>
+        <v>-0.5718309008738583</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.568968411740833</v>
+        <v>-0.5758352846940772</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.4169521951633675</v>
+        <v>-0.4109683743715931</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-16.92395646193359</v>
+        <v>-16.1892357750773</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-7.596736240807426</v>
+        <v>-7.037740364393747</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-14.95913978784661</v>
+        <v>-15.46431669733786</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-10.08506329793542</v>
+        <v>-10.00351268295675</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>-0.242053513979662</v>
+        <v>-0.2309006400040801</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>-0.1636175023159391</v>
+        <v>-0.1438472879776396</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>-0.2461627280024067</v>
+        <v>-0.2553112650628083</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>-0.1631964987557194</v>
+        <v>-0.1617214966763899</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-38.18052562177839</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-24.99858952095187</v>
+        <v>-24.99858952095186</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.7684504350711655</v>
@@ -749,7 +749,7 @@
         <v>-0.6423013967725245</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.3457237166487492</v>
+        <v>-0.345723716648749</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-71.72758278376023</v>
+        <v>-71.97272889395461</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-48.36954846175468</v>
+        <v>-47.12648277851536</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-48.87594703473261</v>
+        <v>-48.13486755313011</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-33.84580033704594</v>
+        <v>-34.44816360133996</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.8486914270259387</v>
+        <v>-0.8532702593728572</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.7475799364461081</v>
+        <v>-0.7394493973302613</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.7490422945593059</v>
+        <v>-0.748814101887792</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.4467226238840142</v>
+        <v>-0.4512697931875482</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-49.34150387825289</v>
+        <v>-51.32239380403656</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-26.27149215900053</v>
+        <v>-25.1431977837591</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>-27.81075854492698</v>
+        <v>-25.94388327554359</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-15.09454158486844</v>
+        <v>-14.92734317162502</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.654143962542551</v>
+        <v>-0.6732930410203111</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.4684179041687679</v>
+        <v>-0.4639175245364669</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.5134104610603639</v>
+        <v>-0.501080262590587</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.2234076739042905</v>
+        <v>-0.2235084460038363</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-7.75028556491325</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-17.74546496159483</v>
+        <v>-17.74546496159481</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.7364417395804485</v>
@@ -849,7 +849,7 @@
         <v>-0.1339039156132639</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.2464914943541126</v>
+        <v>-0.2464914943541125</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-64.94737164973014</v>
+        <v>-63.6502235631344</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-22.5884349477034</v>
+        <v>-23.20116445923662</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-19.603933006879</v>
+        <v>-19.80943252785417</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-27.76282364503822</v>
+        <v>-27.83102833493337</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.8304785629612984</v>
+        <v>-0.8283117439016424</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.4088733232334495</v>
+        <v>-0.4128820336617935</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.3164478093490535</v>
+        <v>-0.3304186940808779</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.3669065752407976</v>
+        <v>-0.3662567151661357</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-44.01136506429288</v>
+        <v>-42.08658252157808</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-3.162823416522585</v>
+        <v>-2.479694838172355</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.108173961626964</v>
+        <v>4.427254420787311</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-7.049418822798871</v>
+        <v>-8.123940124132764</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>-0.6146195837165032</v>
+        <v>-0.6105785295625626</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>-0.06288068066565039</v>
+        <v>-0.05026185819137255</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.07479416501589919</v>
+        <v>0.08202074267399928</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>-0.1060542146134038</v>
+        <v>-0.1151850307694405</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>-20.46487130495612</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-26.63903258821751</v>
+        <v>-26.6390325882175</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.5946801943345855</v>
@@ -949,7 +949,7 @@
         <v>-0.3891945121027118</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.4223612768091834</v>
+        <v>-0.4223612768091833</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-46.39443116656268</v>
+        <v>-46.39227854947375</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-28.42066638550838</v>
+        <v>-28.09727083159063</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-26.25922706909817</v>
+        <v>-26.22071452768373</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-33.43917849958811</v>
+        <v>-32.83139858526003</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.6555941590411773</v>
+        <v>-0.6547145930888627</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.5714297144451269</v>
+        <v>-0.5622938861585325</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.4820910264127518</v>
+        <v>-0.4824253428475642</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.4999708589052487</v>
+        <v>-0.4958931011214868</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-34.62722379150188</v>
+        <v>-34.84053965334672</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-16.65001673088408</v>
+        <v>-16.78464658280849</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-14.17072795720225</v>
+        <v>-13.67054307349634</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>-20.73466734391104</v>
+        <v>-20.2795627432221</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.5209021061064686</v>
+        <v>-0.5284128587450142</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.3748163567641987</v>
+        <v>-0.3685855668186259</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.2859596946594954</v>
+        <v>-0.2703799789194319</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.3464906581203804</v>
+        <v>-0.3421655822075016</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>-6.708181265448204</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-11.65872946770616</v>
+        <v>-11.65872946770618</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.4397668268246546</v>
@@ -1049,7 +1049,7 @@
         <v>-0.1471680501545171</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.1988094771539592</v>
+        <v>-0.1988094771539594</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-31.12454518838994</v>
+        <v>-30.55523731803337</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-10.62622845380259</v>
+        <v>-11.03803105664663</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-12.9162676406818</v>
+        <v>-12.61405188429452</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-18.89796089080208</v>
+        <v>-18.68714705227686</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.5538139606897614</v>
+        <v>-0.5469828481879861</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.2254444914228237</v>
+        <v>-0.2296159824138263</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.2683302573801057</v>
+        <v>-0.2593799833118915</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.294261601383191</v>
+        <v>-0.2909372807697719</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-13.36100500112254</v>
+        <v>-12.2181646024844</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.75101527345146</v>
+        <v>2.434233170257407</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-0.2186918126165289</v>
+        <v>-0.04906171478716424</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-4.902928871998594</v>
+        <v>-4.323584435412381</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>-0.2961174180361693</v>
+        <v>-0.2752671317487135</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.06796989478518421</v>
+        <v>0.05995355769492546</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>-0.004994488326483718</v>
+        <v>-0.003445533651515296</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>-0.09055977757626174</v>
+        <v>-0.07722407460930943</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>20.5189721179972</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>20.88407326850539</v>
+        <v>20.88407326850538</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>5.318226290828394</v>
@@ -1149,7 +1149,7 @@
         <v>6.640347690188677</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>4.690877551360193</v>
+        <v>4.690877551360192</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>15.01601882174476</v>
+        <v>15.13741420579949</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>13.72585256609606</v>
+        <v>13.31823201573145</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>16.68911292874962</v>
+        <v>16.94638795294603</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>16.71035114688814</v>
+        <v>16.41986628286544</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>2.599970455363289</v>
+        <v>2.525251040389695</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>1.404071574152199</v>
+        <v>1.267743677387539</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>3.024198814074163</v>
+        <v>3.013049484159858</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>2.114501908351847</v>
+        <v>2.048669576564464</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>21.64709811496024</v>
+        <v>21.50295587573748</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>22.20906134907357</v>
+        <v>21.99119169815557</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>23.77543229222264</v>
+        <v>23.85048129767952</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>24.21446334566454</v>
+        <v>24.38309775520853</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>11.58216715481145</v>
+        <v>11.95011647778043</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>5.998332351017908</v>
+        <v>5.571476683813072</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>15.70574962577637</v>
+        <v>15.81012191808993</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>10.65831695681947</v>
+        <v>9.87657960411226</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>-16.21707043187849</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>-19.09189059811374</v>
+        <v>-19.09189059811375</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>-0.5480871639008591</v>
@@ -1249,7 +1249,7 @@
         <v>-0.3496175837645599</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>-0.3396211539808762</v>
+        <v>-0.3396211539808763</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-32.90487764466853</v>
+        <v>-33.19988633704995</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-17.91356100267549</v>
+        <v>-17.84192878877933</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-18.99229677172411</v>
+        <v>-19.2641240501838</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-22.30316254185353</v>
+        <v>-22.46153767316091</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.5849809802993411</v>
+        <v>-0.5874246703776833</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.3915315462727207</v>
+        <v>-0.3896646384020531</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.3962862073346672</v>
+        <v>-0.4028419419404464</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.3828304863030217</v>
+        <v>-0.3862421261857769</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-26.45945740250655</v>
+        <v>-26.67387640452811</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-12.06225847164979</v>
+        <v>-11.97896190304389</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-13.4460047710918</v>
+        <v>-13.21288161834929</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-15.54536284709036</v>
+        <v>-15.44224608681934</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>-0.5043786147053646</v>
+        <v>-0.5048511111506093</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>-0.2840929656627249</v>
+        <v>-0.2825403830571878</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>-0.2998051043282524</v>
+        <v>-0.2953373477875232</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>-0.2908153969143521</v>
+        <v>-0.2859424205139002</v>
       </c>
     </row>
     <row r="25">
